--- a/完成データ/グループ別総合計2020-8-27.xlsx
+++ b/完成データ/グループ別総合計2020-8-27.xlsx
@@ -512,72 +512,72 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
+          <t>売り</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
           <t>買い</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>差引</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>売り</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>買い</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>差引</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>売り</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
         <is>
           <t>買い</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>差引</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
         <is>
           <t>売り</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>買い</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
         <is>
           <t>差引</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>売り</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
         <is>
           <t>買い</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>売り</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>差引</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>買い</t>
-        </is>
-      </c>
-      <c r="M2" s="1" t="inlineStr">
-        <is>
-          <t>売り</t>
-        </is>
-      </c>
-      <c r="N2" s="1" t="inlineStr">
-        <is>
-          <t>差引</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>買い</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>売り</t>
         </is>
       </c>
       <c r="Q2" s="1" t="inlineStr">
@@ -608,46 +608,46 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>5156</v>
+      </c>
+      <c r="D4" t="n">
         <v>2498</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5156</v>
       </c>
       <c r="E4" t="n">
         <v>-2658</v>
       </c>
       <c r="F4" t="n">
+        <v>1347.6</v>
+      </c>
+      <c r="G4" t="n">
         <v>1497.4</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1347.6</v>
       </c>
       <c r="H4" t="n">
         <v>149.8</v>
       </c>
       <c r="I4" t="n">
+        <v>5631</v>
+      </c>
+      <c r="J4" t="n">
         <v>4154</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5631</v>
       </c>
       <c r="K4" t="n">
         <v>-1477</v>
       </c>
       <c r="L4" t="n">
+        <v>3417.6</v>
+      </c>
+      <c r="M4" t="n">
         <v>2800.4</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3417.6</v>
       </c>
       <c r="N4" t="n">
         <v>-617.2</v>
       </c>
       <c r="O4" t="n">
+        <v>5523.6</v>
+      </c>
+      <c r="P4" t="n">
         <v>3981.9</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5523.6</v>
       </c>
       <c r="Q4" t="n">
         <v>-1541.7</v>
@@ -663,46 +663,46 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>21280</v>
+      </c>
+      <c r="D5" t="n">
         <v>18500</v>
-      </c>
-      <c r="D5" t="n">
-        <v>21280</v>
       </c>
       <c r="E5" t="n">
         <v>-1914</v>
       </c>
       <c r="F5" t="n">
+        <v>24678.1</v>
+      </c>
+      <c r="G5" t="n">
         <v>23213.1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>24678.1</v>
       </c>
       <c r="H5" t="n">
         <v>-1465</v>
       </c>
       <c r="I5" t="n">
+        <v>19506</v>
+      </c>
+      <c r="J5" t="n">
         <v>18949</v>
-      </c>
-      <c r="J5" t="n">
-        <v>19506</v>
       </c>
       <c r="K5" t="n">
         <v>-924</v>
       </c>
       <c r="L5" t="n">
+        <v>44783.1</v>
+      </c>
+      <c r="M5" t="n">
         <v>41218.1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>44783.1</v>
       </c>
       <c r="N5" t="n">
         <v>-3564.999999999998</v>
       </c>
       <c r="O5" t="n">
+        <v>51872.1</v>
+      </c>
+      <c r="P5" t="n">
         <v>50059.10000000001</v>
-      </c>
-      <c r="P5" t="n">
-        <v>51872.1</v>
       </c>
       <c r="Q5" t="n">
         <v>-2468.999999999998</v>
@@ -718,46 +718,46 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>1317</v>
+      </c>
+      <c r="D6" t="n">
         <v>905</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1317</v>
       </c>
       <c r="E6" t="n">
         <v>-412</v>
       </c>
       <c r="F6" t="n">
+        <v>259.4</v>
+      </c>
+      <c r="G6" t="n">
         <v>437.6</v>
-      </c>
-      <c r="G6" t="n">
-        <v>259.4</v>
       </c>
       <c r="H6" t="n">
         <v>5.999999999999988</v>
       </c>
       <c r="I6" t="n">
+        <v>2344</v>
+      </c>
+      <c r="J6" t="n">
         <v>1472</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2344</v>
       </c>
       <c r="K6" t="n">
         <v>-872</v>
       </c>
       <c r="L6" t="n">
+        <v>723.3</v>
+      </c>
+      <c r="M6" t="n">
         <v>1135.7</v>
-      </c>
-      <c r="M6" t="n">
-        <v>723.3</v>
       </c>
       <c r="N6" t="n">
         <v>-39.79999999999995</v>
       </c>
       <c r="O6" t="n">
+        <v>1051.8</v>
+      </c>
+      <c r="P6" t="n">
         <v>1555.2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1051.8</v>
       </c>
       <c r="Q6" t="n">
         <v>-57.79999999999995</v>
@@ -773,46 +773,46 @@
         </is>
       </c>
       <c r="C7" t="n">
+        <v>3064</v>
+      </c>
+      <c r="D7" t="n">
         <v>3170</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3064</v>
       </c>
       <c r="E7" t="n">
         <v>106</v>
       </c>
       <c r="F7" t="n">
+        <v>10097.5</v>
+      </c>
+      <c r="G7" t="n">
         <v>7917.900000000001</v>
-      </c>
-      <c r="G7" t="n">
-        <v>10097.5</v>
       </c>
       <c r="H7" t="n">
         <v>-2179.7</v>
       </c>
       <c r="I7" t="n">
+        <v>747</v>
+      </c>
+      <c r="J7" t="n">
         <v>822</v>
-      </c>
-      <c r="J7" t="n">
-        <v>747</v>
       </c>
       <c r="K7" t="n">
         <v>75</v>
       </c>
       <c r="L7" t="n">
+        <v>12618.6</v>
+      </c>
+      <c r="M7" t="n">
         <v>10700.4</v>
-      </c>
-      <c r="M7" t="n">
-        <v>12618.6</v>
       </c>
       <c r="N7" t="n">
         <v>-1918.2</v>
       </c>
       <c r="O7" t="n">
+        <v>7544.3</v>
+      </c>
+      <c r="P7" t="n">
         <v>4787</v>
-      </c>
-      <c r="P7" t="n">
-        <v>7544.3</v>
       </c>
       <c r="Q7" t="n">
         <v>-2757.3</v>
@@ -826,46 +826,46 @@
       </c>
       <c r="B8" s="1" t="inlineStr"/>
       <c r="C8" t="n">
+        <v>30817</v>
+      </c>
+      <c r="D8" t="n">
         <v>25073</v>
-      </c>
-      <c r="D8" t="n">
-        <v>30817</v>
       </c>
       <c r="E8" t="n">
         <v>-4878</v>
       </c>
       <c r="F8" t="n">
+        <v>36382.59999999999</v>
+      </c>
+      <c r="G8" t="n">
         <v>33066</v>
-      </c>
-      <c r="G8" t="n">
-        <v>36382.59999999999</v>
       </c>
       <c r="H8" t="n">
         <v>-3488.9</v>
       </c>
       <c r="I8" t="n">
+        <v>28228</v>
+      </c>
+      <c r="J8" t="n">
         <v>25397</v>
-      </c>
-      <c r="J8" t="n">
-        <v>28228</v>
       </c>
       <c r="K8" t="n">
         <v>-3198</v>
       </c>
       <c r="L8" t="n">
+        <v>61542.6</v>
+      </c>
+      <c r="M8" t="n">
         <v>55854.6</v>
-      </c>
-      <c r="M8" t="n">
-        <v>61542.6</v>
       </c>
       <c r="N8" t="n">
         <v>-6140.199999999997</v>
       </c>
       <c r="O8" t="n">
+        <v>65991.8</v>
+      </c>
+      <c r="P8" t="n">
         <v>60383.2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>65991.8</v>
       </c>
       <c r="Q8" t="n">
         <v>-6825.799999999997</v>
@@ -883,46 +883,46 @@
         </is>
       </c>
       <c r="C9" t="n">
+        <v>26436</v>
+      </c>
+      <c r="D9" t="n">
         <v>20998</v>
-      </c>
-      <c r="D9" t="n">
-        <v>26436</v>
       </c>
       <c r="E9" t="n">
         <v>-4572</v>
       </c>
       <c r="F9" t="n">
+        <v>26025.7</v>
+      </c>
+      <c r="G9" t="n">
         <v>24710.5</v>
-      </c>
-      <c r="G9" t="n">
-        <v>26025.7</v>
       </c>
       <c r="H9" t="n">
         <v>-1315.200000000001</v>
       </c>
       <c r="I9" t="n">
+        <v>25137</v>
+      </c>
+      <c r="J9" t="n">
         <v>23103</v>
-      </c>
-      <c r="J9" t="n">
-        <v>25137</v>
       </c>
       <c r="K9" t="n">
         <v>-2401</v>
       </c>
       <c r="L9" t="n">
+        <v>48200.7</v>
+      </c>
+      <c r="M9" t="n">
         <v>44018.5</v>
-      </c>
-      <c r="M9" t="n">
-        <v>48200.7</v>
       </c>
       <c r="N9" t="n">
         <v>-4182.199999999998</v>
       </c>
       <c r="O9" t="n">
+        <v>57395.7</v>
+      </c>
+      <c r="P9" t="n">
         <v>54041.00000000001</v>
-      </c>
-      <c r="P9" t="n">
-        <v>57395.7</v>
       </c>
       <c r="Q9" t="n">
         <v>-4010.699999999998</v>
@@ -940,46 +940,46 @@
         </is>
       </c>
       <c r="C10" t="n">
+        <v>4381</v>
+      </c>
+      <c r="D10" t="n">
         <v>4075</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4381</v>
       </c>
       <c r="E10" t="n">
         <v>-306</v>
       </c>
       <c r="F10" t="n">
+        <v>10356.9</v>
+      </c>
+      <c r="G10" t="n">
         <v>8355.5</v>
-      </c>
-      <c r="G10" t="n">
-        <v>10356.9</v>
       </c>
       <c r="H10" t="n">
         <v>-2173.7</v>
       </c>
       <c r="I10" t="n">
+        <v>3091</v>
+      </c>
+      <c r="J10" t="n">
         <v>2294</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3091</v>
       </c>
       <c r="K10" t="n">
         <v>-797</v>
       </c>
       <c r="L10" t="n">
+        <v>13341.9</v>
+      </c>
+      <c r="M10" t="n">
         <v>11836.1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>13341.9</v>
       </c>
       <c r="N10" t="n">
         <v>-1958</v>
       </c>
       <c r="O10" t="n">
+        <v>8596.1</v>
+      </c>
+      <c r="P10" t="n">
         <v>6342.2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>8596.1</v>
       </c>
       <c r="Q10" t="n">
         <v>-2815.099999999999</v>
